--- a/tables/capital_investment_financing.xlsx
+++ b/tables/capital_investment_financing.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Показатели</t>
   </si>
@@ -51,9 +51,6 @@
     <t>1 437 380</t>
   </si>
   <si>
-    <t>доля(%)</t>
-  </si>
-  <si>
     <t>Янв-июль</t>
   </si>
   <si>
@@ -61,27 +58,100 @@
   </si>
   <si>
     <t>6 161 112</t>
+  </si>
+  <si>
+    <t>1 162 919</t>
+  </si>
+  <si>
+    <t>доля (%)</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>2 340 191</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>8 508 926</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>11 083 233</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>76,0</t>
+  </si>
+  <si>
+    <t>295 313</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>345 665</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>323 551</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>170 524</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>1 317 457</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>612 523</t>
+  </si>
+  <si>
+    <t>7,6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -130,8 +200,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,7 +225,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF006FC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCD6ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,39 +325,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,172 +655,173 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="14">
         <v>2020</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="10">
+      <c r="C1" s="15"/>
+      <c r="D1" s="14">
         <v>2021</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10">
+      <c r="E1" s="15"/>
+      <c r="F1" s="14">
         <v>2022</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="10">
+      <c r="G1" s="15"/>
+      <c r="H1" s="14">
         <v>2023</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
+      <c r="I3" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.191</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.154</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2340191</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.155</v>
-      </c>
-      <c r="H3" s="6" t="s">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="6">
-        <v>14.3</v>
+      <c r="I4" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8">
-        <v>8508926</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="F4" s="8">
-        <v>11083233</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="H4" s="6" t="s">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8">
-        <v>295313</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>345665</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F5" s="8">
-        <v>323551</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="H5" s="8">
-        <v>170524</v>
-      </c>
-      <c r="I5" s="6">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1162919</v>
-      </c>
-      <c r="C6" s="7">
-        <v>9.4E-2</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7">
-        <v>0.109</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1317457</v>
-      </c>
-      <c r="G6" s="7">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="H6" s="8">
-        <v>612523</v>
-      </c>
-      <c r="I6" s="6">
-        <v>7.6</v>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
